--- a/biology/Botanique/Jardin_botanique_de_Bom_Sucesso/Jardin_botanique_de_Bom_Sucesso.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_Bom_Sucesso/Jardin_botanique_de_Bom_Sucesso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin botanique de Bom Sucesso (en portugais Jardim Botânico do Bom Sucesso) est le principal jardin botanique de Sao Tomé-et-Principe. Doté de quelques infrastructures, c'est un haut lieu du tourisme et le point de départ de la plupart des randonnées de montagne sur l'île.
@@ -512,9 +524,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est situé à une altitude de 1 153 m au centre-nord de l'île de São Tomé, dans le district de Mé-Zóchi, à proximité de l'entrée du parc naturel Obô, de la cascade de São Nicolau, du lac de cratère Amélia (Lagoa Amélia) et de la roça Monte Café. Le site constitue aussi une étape pour l'ascension du point culminant de l'île, le pico de São Tomé (2 024 m[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est situé à une altitude de 1 153 m au centre-nord de l'île de São Tomé, dans le district de Mé-Zóchi, à proximité de l'entrée du parc naturel Obô, de la cascade de São Nicolau, du lac de cratère Amélia (Lagoa Amélia) et de la roça Monte Café. Le site constitue aussi une étape pour l'ascension du point culminant de l'île, le pico de São Tomé (2 024 m.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De même que l'herbier national, le jardin botanique a été créé dans le cadre d'un projet ECOFAC (Écosystèmes forestiers d'Afrique centrale), un programme financé par l'Union européenne. La collecte et l'identification des espèces végétales de l'archipel a commencé dès 1994, mais devient plus systématique dans les années 2000, notamment avec la création du parc naturel Obô en 2006, puis différents partenariats, avec le Fonds français pour l'environnement mondial (FFEM), l'Association Monte Pico (AMP[2] ou l'université de Coimbra[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De même que l'herbier national, le jardin botanique a été créé dans le cadre d'un projet ECOFAC (Écosystèmes forestiers d'Afrique centrale), un programme financé par l'Union européenne. La collecte et l'identification des espèces végétales de l'archipel a commencé dès 1994, mais devient plus systématique dans les années 2000, notamment avec la création du parc naturel Obô en 2006, puis différents partenariats, avec le Fonds français pour l'environnement mondial (FFEM), l'Association Monte Pico (AMP ou l'université de Coimbra.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Aménagement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Allée.
@@ -608,9 +626,11 @@
           <t>Fréquentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 2006 un registre des visites a été mis en place à  la réception du jardin. C'est ainsi qu'entre janvier et octobre 2007 (10 mois), on a dénombré 1 018 visiteurs, dont 381 groupes. Les Portugais étaient les plus nombreux (33%), suivis par les Santoméens (25%) et les Français (13 %)[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2006 un registre des visites a été mis en place à  la réception du jardin. C'est ainsi qu'entre janvier et octobre 2007 (10 mois), on a dénombré 1 018 visiteurs, dont 381 groupes. Les Portugais étaient les plus nombreux (33%), suivis par les Santoméens (25%) et les Français (13 %).
 </t>
         </is>
       </c>
@@ -639,9 +659,11 @@
           <t>Flore tropicale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2007 la liste des plantes cultivées au jardin botanique comptait 574 espèces, l'herbier en réunissait 2 383[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2007 la liste des plantes cultivées au jardin botanique comptait 574 espèces, l'herbier en réunissait 2 383.
 			Ravenala madagascariensis.
 			Mimosa pudica.
 			Heliconia rostrata.
@@ -674,9 +696,11 @@
           <t>Flore endémique de São Tomé</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De nombreuses espèces endémiques sont cultivées dans le jardin, comme en témoigne cette liste établie en 2007. Elle n'inclut pas les orchidées, traitées à part. Elle est également en constante évolution, certaines espèces ayant disparu et parfois été réintroduites[6] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreuses espèces endémiques sont cultivées dans le jardin, comme en témoigne cette liste établie en 2007. Elle n'inclut pas les orchidées, traitées à part. Elle est également en constante évolution, certaines espèces ayant disparu et parfois été réintroduites :
 Aidia pallens
 Anisophyllea cabole
 Begonia baccata
@@ -768,10 +792,12 @@
           <t>Ombrières à orchidées</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les orchidées sont nombreuses dans l'archipel, où l'on a dénombré 129 taxons, dont 101 présents sur l'île de Sao Tomé. Les trois-quarts d'entre elles sont épiphytes, plus difficiles à observer dans la nature que les variétés terrestres[7].
-La plupart des espèces sont présentes dans l'herbier ou le jardin botanique, qui a aménagé une ombrière pour celles de São Tomé et une autre pour celles de Principe[8]
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les orchidées sont nombreuses dans l'archipel, où l'on a dénombré 129 taxons, dont 101 présents sur l'île de Sao Tomé. Les trois-quarts d'entre elles sont épiphytes, plus difficiles à observer dans la nature que les variétés terrestres.
+La plupart des espèces sont présentes dans l'herbier ou le jardin botanique, qui a aménagé une ombrière pour celles de São Tomé et une autre pour celles de Principe
 </t>
         </is>
       </c>
